--- a/cleaned_data_indigenous_list.xlsx
+++ b/cleaned_data_indigenous_list.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhibekabdyramanova/Documents/GitHub/indigenous_communities_Canada/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F7D04-2447-6644-A92A-20B4D8E86D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4444,7 +4450,7 @@
     <t>PO BOX 10, AROLAND, ON</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t> </t>
   </si>
   <si>
     <t>GENERAL DELIVERY, SAVANT LAKE, ON</t>
@@ -10858,8 +10864,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10935,13 +10941,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10979,7 +10993,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -11013,6 +11027,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11047,9 +11062,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11222,14 +11238,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F639"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11249,7 +11270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -11269,7 +11290,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11289,7 +11310,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11309,7 +11330,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -11329,7 +11350,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11346,7 +11367,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -11366,7 +11387,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -11386,7 +11407,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -11406,7 +11427,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -11426,7 +11447,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -11446,7 +11467,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -11466,7 +11487,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -11486,7 +11507,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -11506,7 +11527,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -11523,7 +11544,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -11543,7 +11564,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -11563,7 +11584,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -11583,7 +11604,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -11603,7 +11624,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -11623,7 +11644,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -11643,7 +11664,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -11663,7 +11684,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11680,7 +11701,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -11700,7 +11721,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -11720,7 +11741,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -11740,7 +11761,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -11760,7 +11781,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -11780,7 +11801,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -11800,7 +11821,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -11820,7 +11841,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -11840,7 +11861,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -11857,7 +11878,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -11877,7 +11898,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -11897,7 +11918,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -11917,7 +11938,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -11937,7 +11958,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -11957,7 +11978,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -11974,7 +11995,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -11994,7 +12015,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -12014,7 +12035,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -12034,7 +12055,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -12054,7 +12075,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -12074,7 +12095,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -12094,7 +12115,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -12114,7 +12135,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -12134,7 +12155,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -12154,7 +12175,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -12174,7 +12195,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -12194,7 +12215,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -12214,7 +12235,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -12234,7 +12255,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -12254,7 +12275,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -12271,7 +12292,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -12288,7 +12309,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -12308,7 +12329,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -12328,7 +12349,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -12348,7 +12369,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -12368,7 +12389,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -12385,7 +12406,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -12405,7 +12426,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -12425,7 +12446,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -12445,7 +12466,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -12465,7 +12486,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -12485,7 +12506,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -12502,7 +12523,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -12522,7 +12543,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -12542,7 +12563,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -12559,7 +12580,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -12579,7 +12600,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -12599,7 +12620,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -12619,7 +12640,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -12636,7 +12657,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -12656,7 +12677,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -12676,7 +12697,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -12696,7 +12717,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -12716,7 +12737,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -12736,7 +12757,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -12756,7 +12777,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -12776,7 +12797,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -12796,7 +12817,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -12813,7 +12834,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -12833,7 +12854,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -12853,7 +12874,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -12873,7 +12894,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -12893,7 +12914,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -12913,7 +12934,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -12933,7 +12954,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -12953,7 +12974,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -12970,7 +12991,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -12990,7 +13011,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -13010,7 +13031,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -13027,7 +13048,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -13047,7 +13068,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -13067,7 +13088,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -13087,7 +13108,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -13107,7 +13128,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -13127,7 +13148,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -13147,7 +13168,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -13167,7 +13188,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -13187,7 +13208,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -13207,7 +13228,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -13227,7 +13248,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -13247,7 +13268,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -13267,7 +13288,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -13287,7 +13308,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -13307,7 +13328,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -13324,7 +13345,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -13344,7 +13365,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -13361,7 +13382,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -13378,7 +13399,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -13398,7 +13419,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -13415,7 +13436,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -13435,7 +13456,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -13452,7 +13473,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -13472,7 +13493,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -13492,7 +13513,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -13512,7 +13533,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -13532,7 +13553,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -13552,7 +13573,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -13572,7 +13593,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -13592,7 +13613,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -13612,7 +13633,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -13629,7 +13650,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -13649,7 +13670,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -13669,7 +13690,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -13689,7 +13710,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -13709,7 +13730,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -13729,7 +13750,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -13749,7 +13770,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -13769,7 +13790,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -13789,7 +13810,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -13809,7 +13830,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -13829,7 +13850,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -13846,7 +13867,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>139</v>
       </c>
@@ -13866,7 +13887,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -13886,7 +13907,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>141</v>
       </c>
@@ -13906,7 +13927,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -13926,7 +13947,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -13946,7 +13967,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -13963,7 +13984,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -13983,7 +14004,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>146</v>
       </c>
@@ -14003,7 +14024,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -14020,7 +14041,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -14037,7 +14058,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -14057,7 +14078,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -14077,7 +14098,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -14094,7 +14115,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -14114,7 +14135,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -14134,7 +14155,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -14154,7 +14175,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -14171,7 +14192,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -14191,7 +14212,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -14211,7 +14232,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -14231,7 +14252,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -14251,7 +14272,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -14271,7 +14292,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -14288,7 +14309,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -14308,7 +14329,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -14328,7 +14349,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -14348,7 +14369,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -14368,7 +14389,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>166</v>
       </c>
@@ -14388,7 +14409,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>167</v>
       </c>
@@ -14408,7 +14429,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -14428,7 +14449,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -14448,7 +14469,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -14468,7 +14489,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -14488,7 +14509,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>172</v>
       </c>
@@ -14508,7 +14529,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>173</v>
       </c>
@@ -14528,7 +14549,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -14548,7 +14569,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -14568,7 +14589,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>176</v>
       </c>
@@ -14588,7 +14609,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>177</v>
       </c>
@@ -14608,7 +14629,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>178</v>
       </c>
@@ -14628,7 +14649,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -14648,7 +14669,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>180</v>
       </c>
@@ -14668,7 +14689,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -14688,7 +14709,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>182</v>
       </c>
@@ -14708,7 +14729,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>183</v>
       </c>
@@ -14728,7 +14749,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -14748,7 +14769,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>185</v>
       </c>
@@ -14768,7 +14789,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>186</v>
       </c>
@@ -14788,7 +14809,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -14808,7 +14829,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -14828,7 +14849,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>189</v>
       </c>
@@ -14848,7 +14869,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>190</v>
       </c>
@@ -14868,7 +14889,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -14885,7 +14906,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -14905,7 +14926,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -14925,7 +14946,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>194</v>
       </c>
@@ -14942,7 +14963,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -14962,7 +14983,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>196</v>
       </c>
@@ -14982,7 +15003,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>197</v>
       </c>
@@ -15002,7 +15023,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>198</v>
       </c>
@@ -15022,7 +15043,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>199</v>
       </c>
@@ -15042,7 +15063,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>200</v>
       </c>
@@ -15059,7 +15080,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>201</v>
       </c>
@@ -15079,7 +15100,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>202</v>
       </c>
@@ -15096,7 +15117,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>203</v>
       </c>
@@ -15113,7 +15134,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>204</v>
       </c>
@@ -15130,7 +15151,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>205</v>
       </c>
@@ -15147,7 +15168,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>206</v>
       </c>
@@ -15164,7 +15185,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>207</v>
       </c>
@@ -15181,7 +15202,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>208</v>
       </c>
@@ -15198,7 +15219,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -15215,7 +15236,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>210</v>
       </c>
@@ -15232,7 +15253,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -15249,7 +15270,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -15266,7 +15287,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>213</v>
       </c>
@@ -15283,7 +15304,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>214</v>
       </c>
@@ -15300,7 +15321,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -15317,7 +15338,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -15334,7 +15355,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>217</v>
       </c>
@@ -15354,7 +15375,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -15374,7 +15395,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>219</v>
       </c>
@@ -15394,7 +15415,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>220</v>
       </c>
@@ -15414,7 +15435,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>221</v>
       </c>
@@ -15434,7 +15455,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>222</v>
       </c>
@@ -15454,7 +15475,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>223</v>
       </c>
@@ -15474,7 +15495,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>224</v>
       </c>
@@ -15494,7 +15515,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>225</v>
       </c>
@@ -15514,7 +15535,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>226</v>
       </c>
@@ -15531,7 +15552,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>227</v>
       </c>
@@ -15551,7 +15572,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>228</v>
       </c>
@@ -15571,7 +15592,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>229</v>
       </c>
@@ -15588,7 +15609,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>230</v>
       </c>
@@ -15605,7 +15626,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>231</v>
       </c>
@@ -15625,7 +15646,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>232</v>
       </c>
@@ -15642,7 +15663,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>233</v>
       </c>
@@ -15659,7 +15680,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>234</v>
       </c>
@@ -15676,7 +15697,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>235</v>
       </c>
@@ -15696,7 +15717,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>236</v>
       </c>
@@ -15716,7 +15737,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>237</v>
       </c>
@@ -15733,7 +15754,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>238</v>
       </c>
@@ -15750,7 +15771,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>239</v>
       </c>
@@ -15767,7 +15788,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>240</v>
       </c>
@@ -15784,7 +15805,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>241</v>
       </c>
@@ -15801,7 +15822,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>242</v>
       </c>
@@ -15821,7 +15842,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>243</v>
       </c>
@@ -15838,7 +15859,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>244</v>
       </c>
@@ -15855,7 +15876,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>245</v>
       </c>
@@ -15875,7 +15896,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>246</v>
       </c>
@@ -15895,7 +15916,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>247</v>
       </c>
@@ -15915,7 +15936,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>248</v>
       </c>
@@ -15935,7 +15956,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>249</v>
       </c>
@@ -15952,7 +15973,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>250</v>
       </c>
@@ -15969,7 +15990,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>251</v>
       </c>
@@ -15989,7 +16010,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>252</v>
       </c>
@@ -16006,7 +16027,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>253</v>
       </c>
@@ -16023,7 +16044,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>254</v>
       </c>
@@ -16043,7 +16064,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>255</v>
       </c>
@@ -16060,7 +16081,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>256</v>
       </c>
@@ -16080,7 +16101,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>257</v>
       </c>
@@ -16100,7 +16121,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>258</v>
       </c>
@@ -16120,7 +16141,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>259</v>
       </c>
@@ -16140,7 +16161,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>260</v>
       </c>
@@ -16160,7 +16181,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>261</v>
       </c>
@@ -16180,7 +16201,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>262</v>
       </c>
@@ -16200,7 +16221,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>263</v>
       </c>
@@ -16220,7 +16241,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>264</v>
       </c>
@@ -16240,7 +16261,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>265</v>
       </c>
@@ -16260,7 +16281,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>266</v>
       </c>
@@ -16280,7 +16301,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>267</v>
       </c>
@@ -16300,7 +16321,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>268</v>
       </c>
@@ -16317,7 +16338,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>269</v>
       </c>
@@ -16334,7 +16355,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>270</v>
       </c>
@@ -16351,7 +16372,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>271</v>
       </c>
@@ -16371,7 +16392,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>272</v>
       </c>
@@ -16388,7 +16409,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>273</v>
       </c>
@@ -16408,7 +16429,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>274</v>
       </c>
@@ -16428,7 +16449,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>275</v>
       </c>
@@ -16448,7 +16469,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>276</v>
       </c>
@@ -16465,7 +16486,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>277</v>
       </c>
@@ -16485,7 +16506,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>278</v>
       </c>
@@ -16502,7 +16523,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>279</v>
       </c>
@@ -16522,7 +16543,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>280</v>
       </c>
@@ -16542,7 +16563,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>281</v>
       </c>
@@ -16562,7 +16583,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>282</v>
       </c>
@@ -16579,7 +16600,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>283</v>
       </c>
@@ -16599,7 +16620,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>284</v>
       </c>
@@ -16619,7 +16640,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>285</v>
       </c>
@@ -16639,7 +16660,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>286</v>
       </c>
@@ -16659,7 +16680,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>287</v>
       </c>
@@ -16679,7 +16700,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>288</v>
       </c>
@@ -16699,7 +16720,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>289</v>
       </c>
@@ -16719,7 +16740,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>290</v>
       </c>
@@ -16739,7 +16760,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>291</v>
       </c>
@@ -16759,7 +16780,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>292</v>
       </c>
@@ -16779,7 +16800,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>293</v>
       </c>
@@ -16799,7 +16820,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>294</v>
       </c>
@@ -16819,7 +16840,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>295</v>
       </c>
@@ -16839,7 +16860,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>296</v>
       </c>
@@ -16859,7 +16880,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>297</v>
       </c>
@@ -16879,7 +16900,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>298</v>
       </c>
@@ -16899,7 +16920,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>299</v>
       </c>
@@ -16919,7 +16940,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>300</v>
       </c>
@@ -16939,7 +16960,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>301</v>
       </c>
@@ -16959,7 +16980,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>302</v>
       </c>
@@ -16979,7 +17000,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>303</v>
       </c>
@@ -16999,7 +17020,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>304</v>
       </c>
@@ -17019,7 +17040,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>305</v>
       </c>
@@ -17039,7 +17060,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>306</v>
       </c>
@@ -17059,7 +17080,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>307</v>
       </c>
@@ -17079,7 +17100,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>308</v>
       </c>
@@ -17099,7 +17120,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>309</v>
       </c>
@@ -17119,7 +17140,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>310</v>
       </c>
@@ -17139,7 +17160,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>311</v>
       </c>
@@ -17159,7 +17180,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>312</v>
       </c>
@@ -17179,7 +17200,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>313</v>
       </c>
@@ -17199,7 +17220,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>314</v>
       </c>
@@ -17219,7 +17240,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>315</v>
       </c>
@@ -17239,7 +17260,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>316</v>
       </c>
@@ -17259,7 +17280,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>317</v>
       </c>
@@ -17279,7 +17300,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>318</v>
       </c>
@@ -17299,7 +17320,7 @@
         <v>3369</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>319</v>
       </c>
@@ -17319,7 +17340,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>320</v>
       </c>
@@ -17339,7 +17360,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>321</v>
       </c>
@@ -17359,7 +17380,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>322</v>
       </c>
@@ -17379,7 +17400,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>323</v>
       </c>
@@ -17399,7 +17420,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>324</v>
       </c>
@@ -17419,7 +17440,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>325</v>
       </c>
@@ -17439,7 +17460,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>326</v>
       </c>
@@ -17459,7 +17480,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>327</v>
       </c>
@@ -17479,7 +17500,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>328</v>
       </c>
@@ -17499,7 +17520,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>329</v>
       </c>
@@ -17519,7 +17540,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>330</v>
       </c>
@@ -17539,7 +17560,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>331</v>
       </c>
@@ -17559,7 +17580,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>332</v>
       </c>
@@ -17579,7 +17600,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>333</v>
       </c>
@@ -17599,7 +17620,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>334</v>
       </c>
@@ -17619,7 +17640,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>335</v>
       </c>
@@ -17639,7 +17660,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>336</v>
       </c>
@@ -17659,7 +17680,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>337</v>
       </c>
@@ -17679,7 +17700,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>338</v>
       </c>
@@ -17699,7 +17720,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>339</v>
       </c>
@@ -17719,7 +17740,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>340</v>
       </c>
@@ -17739,7 +17760,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>341</v>
       </c>
@@ -17759,7 +17780,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>342</v>
       </c>
@@ -17779,7 +17800,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>343</v>
       </c>
@@ -17799,7 +17820,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>344</v>
       </c>
@@ -17819,7 +17840,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>345</v>
       </c>
@@ -17839,7 +17860,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>346</v>
       </c>
@@ -17859,7 +17880,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>347</v>
       </c>
@@ -17879,7 +17900,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>348</v>
       </c>
@@ -17899,7 +17920,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>349</v>
       </c>
@@ -17919,7 +17940,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>350</v>
       </c>
@@ -17939,7 +17960,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>351</v>
       </c>
@@ -17956,7 +17977,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>352</v>
       </c>
@@ -17976,7 +17997,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>353</v>
       </c>
@@ -17996,7 +18017,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>354</v>
       </c>
@@ -18016,7 +18037,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>355</v>
       </c>
@@ -18036,7 +18057,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>356</v>
       </c>
@@ -18056,7 +18077,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>357</v>
       </c>
@@ -18073,7 +18094,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>358</v>
       </c>
@@ -18093,7 +18114,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>359</v>
       </c>
@@ -18113,7 +18134,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>360</v>
       </c>
@@ -18133,7 +18154,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>361</v>
       </c>
@@ -18153,7 +18174,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>362</v>
       </c>
@@ -18173,7 +18194,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>363</v>
       </c>
@@ -18190,7 +18211,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>364</v>
       </c>
@@ -18210,7 +18231,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>365</v>
       </c>
@@ -18230,7 +18251,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>366</v>
       </c>
@@ -18250,7 +18271,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>367</v>
       </c>
@@ -18270,7 +18291,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>368</v>
       </c>
@@ -18287,7 +18308,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>369</v>
       </c>
@@ -18304,7 +18325,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>370</v>
       </c>
@@ -18324,7 +18345,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>371</v>
       </c>
@@ -18344,7 +18365,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>372</v>
       </c>
@@ -18364,7 +18385,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>373</v>
       </c>
@@ -18384,7 +18405,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>374</v>
       </c>
@@ -18401,7 +18422,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>375</v>
       </c>
@@ -18421,7 +18442,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>376</v>
       </c>
@@ -18438,7 +18459,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>377</v>
       </c>
@@ -18455,7 +18476,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>378</v>
       </c>
@@ -18472,7 +18493,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>379</v>
       </c>
@@ -18489,7 +18510,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>380</v>
       </c>
@@ -18506,7 +18527,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>381</v>
       </c>
@@ -18526,7 +18547,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>382</v>
       </c>
@@ -18543,7 +18564,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>383</v>
       </c>
@@ -18563,7 +18584,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>384</v>
       </c>
@@ -18583,7 +18604,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>385</v>
       </c>
@@ -18603,7 +18624,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>386</v>
       </c>
@@ -18623,7 +18644,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>387</v>
       </c>
@@ -18643,7 +18664,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>388</v>
       </c>
@@ -18660,7 +18681,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>389</v>
       </c>
@@ -18677,7 +18698,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>390</v>
       </c>
@@ -18697,7 +18718,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>391</v>
       </c>
@@ -18717,7 +18738,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>392</v>
       </c>
@@ -18734,7 +18755,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>393</v>
       </c>
@@ -18754,7 +18775,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>394</v>
       </c>
@@ -18771,7 +18792,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>395</v>
       </c>
@@ -18791,7 +18812,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>396</v>
       </c>
@@ -18808,7 +18829,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>397</v>
       </c>
@@ -18828,7 +18849,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>398</v>
       </c>
@@ -18845,7 +18866,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>399</v>
       </c>
@@ -18865,7 +18886,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>400</v>
       </c>
@@ -18882,7 +18903,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>401</v>
       </c>
@@ -18899,7 +18920,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>402</v>
       </c>
@@ -18919,7 +18940,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>403</v>
       </c>
@@ -18939,7 +18960,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>404</v>
       </c>
@@ -18956,7 +18977,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>405</v>
       </c>
@@ -18976,7 +18997,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>406</v>
       </c>
@@ -18996,7 +19017,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>407</v>
       </c>
@@ -19016,7 +19037,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>408</v>
       </c>
@@ -19036,7 +19057,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>409</v>
       </c>
@@ -19056,7 +19077,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>410</v>
       </c>
@@ -19076,7 +19097,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>411</v>
       </c>
@@ -19096,7 +19117,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>412</v>
       </c>
@@ -19116,7 +19137,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>413</v>
       </c>
@@ -19136,7 +19157,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>414</v>
       </c>
@@ -19156,7 +19177,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>415</v>
       </c>
@@ -19173,7 +19194,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>416</v>
       </c>
@@ -19193,7 +19214,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>417</v>
       </c>
@@ -19213,7 +19234,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>418</v>
       </c>
@@ -19233,7 +19254,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>419</v>
       </c>
@@ -19253,7 +19274,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>420</v>
       </c>
@@ -19273,7 +19294,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>421</v>
       </c>
@@ -19290,7 +19311,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>422</v>
       </c>
@@ -19310,7 +19331,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>423</v>
       </c>
@@ -19330,7 +19351,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>424</v>
       </c>
@@ -19350,7 +19371,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>425</v>
       </c>
@@ -19367,7 +19388,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>426</v>
       </c>
@@ -19387,7 +19408,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>427</v>
       </c>
@@ -19407,7 +19428,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>428</v>
       </c>
@@ -19427,7 +19448,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>429</v>
       </c>
@@ -19447,7 +19468,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>430</v>
       </c>
@@ -19467,7 +19488,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>431</v>
       </c>
@@ -19487,7 +19508,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>432</v>
       </c>
@@ -19507,7 +19528,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>433</v>
       </c>
@@ -19527,7 +19548,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>434</v>
       </c>
@@ -19547,7 +19568,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>435</v>
       </c>
@@ -19567,7 +19588,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>436</v>
       </c>
@@ -19587,7 +19608,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>437</v>
       </c>
@@ -19607,7 +19628,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>438</v>
       </c>
@@ -19627,7 +19648,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>439</v>
       </c>
@@ -19647,7 +19668,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>440</v>
       </c>
@@ -19667,7 +19688,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>441</v>
       </c>
@@ -19684,7 +19705,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>442</v>
       </c>
@@ -19701,7 +19722,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>443</v>
       </c>
@@ -19721,7 +19742,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>444</v>
       </c>
@@ -19741,7 +19762,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>445</v>
       </c>
@@ -19761,7 +19782,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>446</v>
       </c>
@@ -19781,7 +19802,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>447</v>
       </c>
@@ -19798,7 +19819,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>448</v>
       </c>
@@ -19815,7 +19836,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>449</v>
       </c>
@@ -19835,7 +19856,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>450</v>
       </c>
@@ -19852,7 +19873,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>451</v>
       </c>
@@ -19872,7 +19893,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>452</v>
       </c>
@@ -19892,7 +19913,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>453</v>
       </c>
@@ -19912,7 +19933,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>454</v>
       </c>
@@ -19929,7 +19950,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>455</v>
       </c>
@@ -19946,7 +19967,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>456</v>
       </c>
@@ -19966,7 +19987,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>457</v>
       </c>
@@ -19986,7 +20007,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>458</v>
       </c>
@@ -20003,7 +20024,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>459</v>
       </c>
@@ -20020,7 +20041,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>460</v>
       </c>
@@ -20040,7 +20061,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>461</v>
       </c>
@@ -20060,7 +20081,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>462</v>
       </c>
@@ -20080,7 +20101,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>463</v>
       </c>
@@ -20100,7 +20121,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>464</v>
       </c>
@@ -20120,7 +20141,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>465</v>
       </c>
@@ -20137,7 +20158,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>466</v>
       </c>
@@ -20157,7 +20178,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>467</v>
       </c>
@@ -20174,7 +20195,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>468</v>
       </c>
@@ -20194,7 +20215,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>469</v>
       </c>
@@ -20211,7 +20232,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>470</v>
       </c>
@@ -20231,7 +20252,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>471</v>
       </c>
@@ -20251,7 +20272,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>472</v>
       </c>
@@ -20268,7 +20289,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>473</v>
       </c>
@@ -20288,7 +20309,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>474</v>
       </c>
@@ -20305,7 +20326,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>475</v>
       </c>
@@ -20322,7 +20343,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>476</v>
       </c>
@@ -20342,7 +20363,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>477</v>
       </c>
@@ -20362,7 +20383,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>478</v>
       </c>
@@ -20382,7 +20403,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>479</v>
       </c>
@@ -20402,7 +20423,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>480</v>
       </c>
@@ -20419,7 +20440,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>481</v>
       </c>
@@ -20439,7 +20460,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>482</v>
       </c>
@@ -20459,7 +20480,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>483</v>
       </c>
@@ -20479,7 +20500,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>484</v>
       </c>
@@ -20499,7 +20520,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>485</v>
       </c>
@@ -20519,7 +20540,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>486</v>
       </c>
@@ -20539,7 +20560,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>487</v>
       </c>
@@ -20559,7 +20580,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>488</v>
       </c>
@@ -20576,7 +20597,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>489</v>
       </c>
@@ -20596,7 +20617,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>490</v>
       </c>
@@ -20616,7 +20637,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>491</v>
       </c>
@@ -20633,7 +20654,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>492</v>
       </c>
@@ -20650,7 +20671,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>493</v>
       </c>
@@ -20670,7 +20691,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>494</v>
       </c>
@@ -20690,7 +20711,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>495</v>
       </c>
@@ -20707,7 +20728,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>496</v>
       </c>
@@ -20727,7 +20748,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>497</v>
       </c>
@@ -20747,7 +20768,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>498</v>
       </c>
@@ -20764,7 +20785,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>499</v>
       </c>
@@ -20784,7 +20805,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>500</v>
       </c>
@@ -20804,7 +20825,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>501</v>
       </c>
@@ -20824,7 +20845,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>502</v>
       </c>
@@ -20844,7 +20865,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>503</v>
       </c>
@@ -20864,7 +20885,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>504</v>
       </c>
@@ -20884,7 +20905,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>505</v>
       </c>
@@ -20904,7 +20925,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>506</v>
       </c>
@@ -20924,7 +20945,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>507</v>
       </c>
@@ -20944,7 +20965,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>508</v>
       </c>
@@ -20964,7 +20985,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>509</v>
       </c>
@@ -20984,7 +21005,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>510</v>
       </c>
@@ -21001,7 +21022,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>511</v>
       </c>
@@ -21021,7 +21042,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>512</v>
       </c>
@@ -21041,7 +21062,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>513</v>
       </c>
@@ -21061,7 +21082,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>514</v>
       </c>
@@ -21081,7 +21102,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>515</v>
       </c>
@@ -21098,7 +21119,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>516</v>
       </c>
@@ -21118,7 +21139,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>517</v>
       </c>
@@ -21135,7 +21156,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>518</v>
       </c>
@@ -21155,7 +21176,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>519</v>
       </c>
@@ -21175,7 +21196,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>520</v>
       </c>
@@ -21192,7 +21213,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>521</v>
       </c>
@@ -21212,7 +21233,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>522</v>
       </c>
@@ -21232,7 +21253,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>523</v>
       </c>
@@ -21252,7 +21273,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>524</v>
       </c>
@@ -21272,7 +21293,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>525</v>
       </c>
@@ -21289,7 +21310,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>526</v>
       </c>
@@ -21306,7 +21327,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>527</v>
       </c>
@@ -21326,7 +21347,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>528</v>
       </c>
@@ -21346,7 +21367,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>529</v>
       </c>
@@ -21363,7 +21384,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>530</v>
       </c>
@@ -21383,7 +21404,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>531</v>
       </c>
@@ -21403,7 +21424,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>532</v>
       </c>
@@ -21423,7 +21444,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>533</v>
       </c>
@@ -21443,7 +21464,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>534</v>
       </c>
@@ -21463,7 +21484,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>535</v>
       </c>
@@ -21483,7 +21504,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>536</v>
       </c>
@@ -21503,7 +21524,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>537</v>
       </c>
@@ -21523,7 +21544,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>538</v>
       </c>
@@ -21543,7 +21564,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>539</v>
       </c>
@@ -21560,7 +21581,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>540</v>
       </c>
@@ -21577,7 +21598,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>541</v>
       </c>
@@ -21597,7 +21618,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>542</v>
       </c>
@@ -21617,7 +21638,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>543</v>
       </c>
@@ -21637,7 +21658,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>544</v>
       </c>
@@ -21657,7 +21678,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>545</v>
       </c>
@@ -21677,7 +21698,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>546</v>
       </c>
@@ -21697,7 +21718,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>547</v>
       </c>
@@ -21717,7 +21738,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>548</v>
       </c>
@@ -21737,7 +21758,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>549</v>
       </c>
@@ -21754,7 +21775,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>550</v>
       </c>
@@ -21774,7 +21795,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>551</v>
       </c>
@@ -21794,7 +21815,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>552</v>
       </c>
@@ -21814,7 +21835,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>553</v>
       </c>
@@ -21834,7 +21855,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>554</v>
       </c>
@@ -21854,7 +21875,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>555</v>
       </c>
@@ -21874,7 +21895,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>556</v>
       </c>
@@ -21894,7 +21915,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>557</v>
       </c>
@@ -21914,7 +21935,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>558</v>
       </c>
@@ -21934,7 +21955,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>559</v>
       </c>
@@ -21954,7 +21975,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>560</v>
       </c>
@@ -21974,7 +21995,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>561</v>
       </c>
@@ -21994,7 +22015,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>562</v>
       </c>
@@ -22014,7 +22035,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>563</v>
       </c>
@@ -22034,7 +22055,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>564</v>
       </c>
@@ -22054,7 +22075,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>565</v>
       </c>
@@ -22074,7 +22095,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>566</v>
       </c>
@@ -22094,7 +22115,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>567</v>
       </c>
@@ -22114,7 +22135,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>568</v>
       </c>
@@ -22134,7 +22155,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>569</v>
       </c>
@@ -22154,7 +22175,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>570</v>
       </c>
@@ -22174,7 +22195,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>571</v>
       </c>
@@ -22194,7 +22215,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>572</v>
       </c>
@@ -22214,7 +22235,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>573</v>
       </c>
@@ -22231,7 +22252,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>574</v>
       </c>
@@ -22251,7 +22272,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>575</v>
       </c>
@@ -22271,7 +22292,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>576</v>
       </c>
@@ -22291,7 +22312,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>577</v>
       </c>
@@ -22311,7 +22332,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>578</v>
       </c>
@@ -22331,7 +22352,7 @@
         <v>3571</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>579</v>
       </c>
@@ -22351,7 +22372,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>580</v>
       </c>
@@ -22368,7 +22389,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>581</v>
       </c>
@@ -22388,7 +22409,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>582</v>
       </c>
@@ -22405,7 +22426,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>583</v>
       </c>
@@ -22425,7 +22446,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>584</v>
       </c>
@@ -22445,7 +22466,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>585</v>
       </c>
@@ -22465,7 +22486,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>586</v>
       </c>
@@ -22485,7 +22506,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>587</v>
       </c>
@@ -22502,7 +22523,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>588</v>
       </c>
@@ -22519,7 +22540,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>589</v>
       </c>
@@ -22539,7 +22560,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>590</v>
       </c>
@@ -22559,7 +22580,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>591</v>
       </c>
@@ -22579,7 +22600,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>592</v>
       </c>
@@ -22596,7 +22617,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>593</v>
       </c>
@@ -22616,7 +22637,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>594</v>
       </c>
@@ -22633,7 +22654,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>595</v>
       </c>
@@ -22650,7 +22671,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>596</v>
       </c>
@@ -22667,7 +22688,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>597</v>
       </c>
@@ -22687,7 +22708,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>598</v>
       </c>
@@ -22704,7 +22725,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>599</v>
       </c>
@@ -22724,7 +22745,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>600</v>
       </c>
@@ -22741,7 +22762,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>601</v>
       </c>
@@ -22761,7 +22782,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>602</v>
       </c>
@@ -22781,7 +22802,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>603</v>
       </c>
@@ -22798,7 +22819,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>604</v>
       </c>
@@ -22818,7 +22839,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>605</v>
       </c>
@@ -22838,7 +22859,7 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>606</v>
       </c>
@@ -22855,7 +22876,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>607</v>
       </c>
@@ -22875,7 +22896,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>608</v>
       </c>
@@ -22895,7 +22916,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>609</v>
       </c>
@@ -22915,7 +22936,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>610</v>
       </c>
@@ -22932,7 +22953,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>611</v>
       </c>
@@ -22952,7 +22973,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>612</v>
       </c>
@@ -22969,7 +22990,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>613</v>
       </c>
@@ -22989,7 +23010,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>614</v>
       </c>
@@ -23006,7 +23027,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>615</v>
       </c>
@@ -23026,7 +23047,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>616</v>
       </c>
@@ -23043,7 +23064,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>617</v>
       </c>
@@ -23063,7 +23084,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>618</v>
       </c>
@@ -23083,7 +23104,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>619</v>
       </c>
@@ -23103,7 +23124,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>620</v>
       </c>
@@ -23120,7 +23141,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>621</v>
       </c>
@@ -23140,7 +23161,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>622</v>
       </c>
@@ -23160,7 +23181,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>623</v>
       </c>
@@ -23180,7 +23201,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>624</v>
       </c>
@@ -23200,7 +23221,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>625</v>
       </c>
@@ -23217,7 +23238,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>626</v>
       </c>
@@ -23237,7 +23258,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>627</v>
       </c>
@@ -23257,7 +23278,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>628</v>
       </c>
@@ -23277,7 +23298,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>629</v>
       </c>
@@ -23297,7 +23318,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>630</v>
       </c>
@@ -23314,7 +23335,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>631</v>
       </c>
@@ -23334,7 +23355,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>632</v>
       </c>
@@ -23351,7 +23372,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>633</v>
       </c>
@@ -23368,7 +23389,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>634</v>
       </c>
@@ -23388,7 +23409,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>635</v>
       </c>
@@ -23408,7 +23429,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>636</v>
       </c>
@@ -23428,7 +23449,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>637</v>
       </c>
@@ -23445,7 +23466,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>638</v>
       </c>
@@ -23465,7 +23486,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>639</v>
       </c>
@@ -23482,7 +23503,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>640</v>
       </c>
@@ -23502,7 +23523,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>641</v>
       </c>
@@ -23519,7 +23540,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>642</v>
       </c>
@@ -23539,7 +23560,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>643</v>
       </c>
@@ -23561,492 +23582,492 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F10" r:id="rId8"/>
-    <hyperlink ref="F11" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12"/>
-    <hyperlink ref="F16" r:id="rId13"/>
-    <hyperlink ref="F17" r:id="rId14"/>
-    <hyperlink ref="F18" r:id="rId15"/>
-    <hyperlink ref="F19" r:id="rId16"/>
-    <hyperlink ref="F20" r:id="rId17"/>
-    <hyperlink ref="F21" r:id="rId18"/>
-    <hyperlink ref="F22" r:id="rId19"/>
-    <hyperlink ref="F24" r:id="rId20"/>
-    <hyperlink ref="F25" r:id="rId21"/>
-    <hyperlink ref="F26" r:id="rId22"/>
-    <hyperlink ref="F27" r:id="rId23"/>
-    <hyperlink ref="F28" r:id="rId24"/>
-    <hyperlink ref="F29" r:id="rId25"/>
-    <hyperlink ref="F30" r:id="rId26"/>
-    <hyperlink ref="F31" r:id="rId27"/>
-    <hyperlink ref="F33" r:id="rId28"/>
-    <hyperlink ref="F34" r:id="rId29"/>
-    <hyperlink ref="F35" r:id="rId30"/>
-    <hyperlink ref="F36" r:id="rId31"/>
-    <hyperlink ref="F37" r:id="rId32"/>
-    <hyperlink ref="F39" r:id="rId33"/>
-    <hyperlink ref="F40" r:id="rId34"/>
-    <hyperlink ref="F41" r:id="rId35"/>
-    <hyperlink ref="F42" r:id="rId36"/>
-    <hyperlink ref="F43" r:id="rId37"/>
-    <hyperlink ref="F44" r:id="rId38"/>
-    <hyperlink ref="F45" r:id="rId39"/>
-    <hyperlink ref="F46" r:id="rId40"/>
-    <hyperlink ref="F47" r:id="rId41"/>
-    <hyperlink ref="F48" r:id="rId42"/>
-    <hyperlink ref="F49" r:id="rId43"/>
-    <hyperlink ref="F50" r:id="rId44"/>
-    <hyperlink ref="F51" r:id="rId45"/>
-    <hyperlink ref="F52" r:id="rId46"/>
-    <hyperlink ref="F55" r:id="rId47"/>
-    <hyperlink ref="F56" r:id="rId48"/>
-    <hyperlink ref="F57" r:id="rId49"/>
-    <hyperlink ref="F58" r:id="rId50"/>
-    <hyperlink ref="F60" r:id="rId51"/>
-    <hyperlink ref="F61" r:id="rId52"/>
-    <hyperlink ref="F62" r:id="rId53"/>
-    <hyperlink ref="F63" r:id="rId54"/>
-    <hyperlink ref="F64" r:id="rId55"/>
-    <hyperlink ref="F66" r:id="rId56"/>
-    <hyperlink ref="F67" r:id="rId57"/>
-    <hyperlink ref="F69" r:id="rId58"/>
-    <hyperlink ref="F70" r:id="rId59"/>
-    <hyperlink ref="F71" r:id="rId60"/>
-    <hyperlink ref="F73" r:id="rId61"/>
-    <hyperlink ref="F74" r:id="rId62"/>
-    <hyperlink ref="F75" r:id="rId63"/>
-    <hyperlink ref="F76" r:id="rId64"/>
-    <hyperlink ref="F77" r:id="rId65"/>
-    <hyperlink ref="F78" r:id="rId66"/>
-    <hyperlink ref="F79" r:id="rId67"/>
-    <hyperlink ref="F80" r:id="rId68"/>
-    <hyperlink ref="F82" r:id="rId69"/>
-    <hyperlink ref="F83" r:id="rId70"/>
-    <hyperlink ref="F84" r:id="rId71"/>
-    <hyperlink ref="F85" r:id="rId72"/>
-    <hyperlink ref="F86" r:id="rId73"/>
-    <hyperlink ref="F87" r:id="rId74"/>
-    <hyperlink ref="F88" r:id="rId75"/>
-    <hyperlink ref="F90" r:id="rId76"/>
-    <hyperlink ref="F91" r:id="rId77"/>
-    <hyperlink ref="F93" r:id="rId78"/>
-    <hyperlink ref="F94" r:id="rId79"/>
-    <hyperlink ref="F95" r:id="rId80"/>
-    <hyperlink ref="F96" r:id="rId81"/>
-    <hyperlink ref="F97" r:id="rId82"/>
-    <hyperlink ref="F98" r:id="rId83"/>
-    <hyperlink ref="F99" r:id="rId84"/>
-    <hyperlink ref="F100" r:id="rId85"/>
-    <hyperlink ref="F101" r:id="rId86" location="tayk"/>
-    <hyperlink ref="F102" r:id="rId87" location="ween"/>
-    <hyperlink ref="F104" r:id="rId88"/>
-    <hyperlink ref="F105" r:id="rId89"/>
-    <hyperlink ref="F106" r:id="rId90"/>
-    <hyperlink ref="F108" r:id="rId91"/>
-    <hyperlink ref="F111" r:id="rId92"/>
-    <hyperlink ref="F113" r:id="rId93"/>
-    <hyperlink ref="F115" r:id="rId94"/>
-    <hyperlink ref="F116" r:id="rId95"/>
-    <hyperlink ref="F117" r:id="rId96"/>
-    <hyperlink ref="F118" r:id="rId97"/>
-    <hyperlink ref="F119" r:id="rId98"/>
-    <hyperlink ref="F120" r:id="rId99"/>
-    <hyperlink ref="F121" r:id="rId100"/>
-    <hyperlink ref="F122" r:id="rId101"/>
-    <hyperlink ref="F124" r:id="rId102"/>
-    <hyperlink ref="F125" r:id="rId103"/>
-    <hyperlink ref="F126" r:id="rId104"/>
-    <hyperlink ref="F127" r:id="rId105"/>
-    <hyperlink ref="F128" r:id="rId106"/>
-    <hyperlink ref="F129" r:id="rId107"/>
-    <hyperlink ref="F131" r:id="rId108"/>
-    <hyperlink ref="F132" r:id="rId109"/>
-    <hyperlink ref="F133" r:id="rId110"/>
-    <hyperlink ref="F135" r:id="rId111"/>
-    <hyperlink ref="F136" r:id="rId112"/>
-    <hyperlink ref="F137" r:id="rId113"/>
-    <hyperlink ref="F138" r:id="rId114"/>
-    <hyperlink ref="F139" r:id="rId115"/>
-    <hyperlink ref="F141" r:id="rId116"/>
-    <hyperlink ref="F142" r:id="rId117"/>
-    <hyperlink ref="F145" r:id="rId118"/>
-    <hyperlink ref="F146" r:id="rId119"/>
-    <hyperlink ref="F148" r:id="rId120"/>
-    <hyperlink ref="F149" r:id="rId121"/>
-    <hyperlink ref="F150" r:id="rId122"/>
-    <hyperlink ref="F152" r:id="rId123"/>
-    <hyperlink ref="F153" r:id="rId124"/>
-    <hyperlink ref="F154" r:id="rId125"/>
-    <hyperlink ref="F155" r:id="rId126"/>
-    <hyperlink ref="F156" r:id="rId127"/>
-    <hyperlink ref="F158" r:id="rId128"/>
-    <hyperlink ref="F159" r:id="rId129"/>
-    <hyperlink ref="F160" r:id="rId130"/>
-    <hyperlink ref="F161" r:id="rId131"/>
-    <hyperlink ref="F162" r:id="rId132"/>
-    <hyperlink ref="F163" r:id="rId133"/>
-    <hyperlink ref="F164" r:id="rId134"/>
-    <hyperlink ref="F165" r:id="rId135"/>
-    <hyperlink ref="F166" r:id="rId136"/>
-    <hyperlink ref="F167" r:id="rId137"/>
-    <hyperlink ref="F168" r:id="rId138"/>
-    <hyperlink ref="F169" r:id="rId139"/>
-    <hyperlink ref="F170" r:id="rId140"/>
-    <hyperlink ref="F171" r:id="rId141"/>
-    <hyperlink ref="F172" r:id="rId142"/>
-    <hyperlink ref="F173" r:id="rId143"/>
-    <hyperlink ref="F174" r:id="rId144"/>
-    <hyperlink ref="F175" r:id="rId145"/>
-    <hyperlink ref="F176" r:id="rId146"/>
-    <hyperlink ref="F177" r:id="rId147"/>
-    <hyperlink ref="F178" r:id="rId148"/>
-    <hyperlink ref="F179" r:id="rId149"/>
-    <hyperlink ref="F180" r:id="rId150"/>
-    <hyperlink ref="F181" r:id="rId151"/>
-    <hyperlink ref="F182" r:id="rId152" location="flyingpost"/>
-    <hyperlink ref="F183" r:id="rId153"/>
-    <hyperlink ref="F184" r:id="rId154" location="chapleauojibwe"/>
-    <hyperlink ref="F185" r:id="rId155"/>
-    <hyperlink ref="F186" r:id="rId156"/>
-    <hyperlink ref="F188" r:id="rId157"/>
-    <hyperlink ref="F189" r:id="rId158"/>
-    <hyperlink ref="F191" r:id="rId159"/>
-    <hyperlink ref="F192" r:id="rId160"/>
-    <hyperlink ref="F193" r:id="rId161"/>
-    <hyperlink ref="F194" r:id="rId162"/>
-    <hyperlink ref="F195" r:id="rId163"/>
-    <hyperlink ref="F197" r:id="rId164"/>
-    <hyperlink ref="F213" r:id="rId165"/>
-    <hyperlink ref="F214" r:id="rId166"/>
-    <hyperlink ref="F215" r:id="rId167"/>
-    <hyperlink ref="F216" r:id="rId168"/>
-    <hyperlink ref="F217" r:id="rId169"/>
-    <hyperlink ref="F218" r:id="rId170"/>
-    <hyperlink ref="F219" r:id="rId171"/>
-    <hyperlink ref="F220" r:id="rId172"/>
-    <hyperlink ref="F221" r:id="rId173"/>
-    <hyperlink ref="F223" r:id="rId174"/>
-    <hyperlink ref="F224" r:id="rId175"/>
-    <hyperlink ref="F227" r:id="rId176"/>
-    <hyperlink ref="F231" r:id="rId177"/>
-    <hyperlink ref="F232" r:id="rId178"/>
-    <hyperlink ref="F238" r:id="rId179"/>
-    <hyperlink ref="F241" r:id="rId180"/>
-    <hyperlink ref="F242" r:id="rId181"/>
-    <hyperlink ref="F243" r:id="rId182"/>
-    <hyperlink ref="F244" r:id="rId183"/>
-    <hyperlink ref="F247" r:id="rId184"/>
-    <hyperlink ref="F250" r:id="rId185"/>
-    <hyperlink ref="F252" r:id="rId186"/>
-    <hyperlink ref="F253" r:id="rId187"/>
-    <hyperlink ref="F254" r:id="rId188"/>
-    <hyperlink ref="F255" r:id="rId189"/>
-    <hyperlink ref="F256" r:id="rId190"/>
-    <hyperlink ref="F257" r:id="rId191"/>
-    <hyperlink ref="F258" r:id="rId192"/>
-    <hyperlink ref="F259" r:id="rId193"/>
-    <hyperlink ref="F260" r:id="rId194"/>
-    <hyperlink ref="F261" r:id="rId195"/>
-    <hyperlink ref="F262" r:id="rId196"/>
-    <hyperlink ref="F263" r:id="rId197"/>
-    <hyperlink ref="F267" r:id="rId198"/>
-    <hyperlink ref="F269" r:id="rId199"/>
-    <hyperlink ref="F270" r:id="rId200"/>
-    <hyperlink ref="F271" r:id="rId201"/>
-    <hyperlink ref="F273" r:id="rId202"/>
-    <hyperlink ref="F275" r:id="rId203"/>
-    <hyperlink ref="F276" r:id="rId204"/>
-    <hyperlink ref="F277" r:id="rId205"/>
-    <hyperlink ref="F279" r:id="rId206"/>
-    <hyperlink ref="F280" r:id="rId207"/>
-    <hyperlink ref="F281" r:id="rId208"/>
-    <hyperlink ref="F282" r:id="rId209"/>
-    <hyperlink ref="F283" r:id="rId210"/>
-    <hyperlink ref="F284" r:id="rId211"/>
-    <hyperlink ref="F285" r:id="rId212"/>
-    <hyperlink ref="F286" r:id="rId213"/>
-    <hyperlink ref="F287" r:id="rId214"/>
-    <hyperlink ref="F288" r:id="rId215"/>
-    <hyperlink ref="F289" r:id="rId216"/>
-    <hyperlink ref="F290" r:id="rId217"/>
-    <hyperlink ref="F291" r:id="rId218"/>
-    <hyperlink ref="F292" r:id="rId219"/>
-    <hyperlink ref="F293" r:id="rId220"/>
-    <hyperlink ref="F294" r:id="rId221"/>
-    <hyperlink ref="F295" r:id="rId222"/>
-    <hyperlink ref="F296" r:id="rId223"/>
-    <hyperlink ref="F297" r:id="rId224"/>
-    <hyperlink ref="F298" r:id="rId225"/>
-    <hyperlink ref="F299" r:id="rId226"/>
-    <hyperlink ref="F300" r:id="rId227"/>
-    <hyperlink ref="F301" r:id="rId228"/>
-    <hyperlink ref="F302" r:id="rId229"/>
-    <hyperlink ref="F303" r:id="rId230"/>
-    <hyperlink ref="F304" r:id="rId231"/>
-    <hyperlink ref="F305" r:id="rId232"/>
-    <hyperlink ref="F306" r:id="rId233"/>
-    <hyperlink ref="F307" r:id="rId234"/>
-    <hyperlink ref="F308" r:id="rId235"/>
-    <hyperlink ref="F309" r:id="rId236"/>
-    <hyperlink ref="F310" r:id="rId237"/>
-    <hyperlink ref="F311" r:id="rId238"/>
-    <hyperlink ref="F312" r:id="rId239"/>
-    <hyperlink ref="F313" r:id="rId240"/>
-    <hyperlink ref="F314" r:id="rId241"/>
-    <hyperlink ref="F315" r:id="rId242"/>
-    <hyperlink ref="F316" r:id="rId243"/>
-    <hyperlink ref="F317" r:id="rId244"/>
-    <hyperlink ref="F318" r:id="rId245"/>
-    <hyperlink ref="F319" r:id="rId246"/>
-    <hyperlink ref="F320" r:id="rId247"/>
-    <hyperlink ref="F321" r:id="rId248"/>
-    <hyperlink ref="F322" r:id="rId249"/>
-    <hyperlink ref="F323" r:id="rId250"/>
-    <hyperlink ref="F324" r:id="rId251"/>
-    <hyperlink ref="F325" r:id="rId252"/>
-    <hyperlink ref="F326" r:id="rId253"/>
-    <hyperlink ref="F327" r:id="rId254"/>
-    <hyperlink ref="F328" r:id="rId255"/>
-    <hyperlink ref="F329" r:id="rId256"/>
-    <hyperlink ref="F330" r:id="rId257"/>
-    <hyperlink ref="F331" r:id="rId258"/>
-    <hyperlink ref="F332" r:id="rId259"/>
-    <hyperlink ref="F333" r:id="rId260"/>
-    <hyperlink ref="F334" r:id="rId261"/>
-    <hyperlink ref="F335" r:id="rId262"/>
-    <hyperlink ref="F336" r:id="rId263"/>
-    <hyperlink ref="F337" r:id="rId264"/>
-    <hyperlink ref="F338" r:id="rId265"/>
-    <hyperlink ref="F339" r:id="rId266"/>
-    <hyperlink ref="F340" r:id="rId267"/>
-    <hyperlink ref="F341" r:id="rId268"/>
-    <hyperlink ref="F342" r:id="rId269"/>
-    <hyperlink ref="F343" r:id="rId270"/>
-    <hyperlink ref="F344" r:id="rId271"/>
-    <hyperlink ref="F345" r:id="rId272"/>
-    <hyperlink ref="F346" r:id="rId273"/>
-    <hyperlink ref="F348" r:id="rId274"/>
-    <hyperlink ref="F349" r:id="rId275"/>
-    <hyperlink ref="F350" r:id="rId276"/>
-    <hyperlink ref="F351" r:id="rId277"/>
-    <hyperlink ref="F352" r:id="rId278"/>
-    <hyperlink ref="F354" r:id="rId279"/>
-    <hyperlink ref="F355" r:id="rId280"/>
-    <hyperlink ref="F356" r:id="rId281"/>
-    <hyperlink ref="F357" r:id="rId282"/>
-    <hyperlink ref="F358" r:id="rId283"/>
-    <hyperlink ref="F360" r:id="rId284"/>
-    <hyperlink ref="F361" r:id="rId285"/>
-    <hyperlink ref="F362" r:id="rId286"/>
-    <hyperlink ref="F363" r:id="rId287"/>
-    <hyperlink ref="F366" r:id="rId288"/>
-    <hyperlink ref="F367" r:id="rId289"/>
-    <hyperlink ref="F368" r:id="rId290"/>
-    <hyperlink ref="F369" r:id="rId291"/>
-    <hyperlink ref="F371" r:id="rId292"/>
-    <hyperlink ref="F377" r:id="rId293"/>
-    <hyperlink ref="F379" r:id="rId294"/>
-    <hyperlink ref="F380" r:id="rId295"/>
-    <hyperlink ref="F381" r:id="rId296"/>
-    <hyperlink ref="F382" r:id="rId297"/>
-    <hyperlink ref="F383" r:id="rId298"/>
-    <hyperlink ref="F386" r:id="rId299"/>
-    <hyperlink ref="F387" r:id="rId300"/>
-    <hyperlink ref="F389" r:id="rId301"/>
-    <hyperlink ref="F391" r:id="rId302"/>
-    <hyperlink ref="F393" r:id="rId303"/>
-    <hyperlink ref="F395" r:id="rId304"/>
-    <hyperlink ref="F398" r:id="rId305"/>
-    <hyperlink ref="F399" r:id="rId306"/>
-    <hyperlink ref="F401" r:id="rId307"/>
-    <hyperlink ref="F402" r:id="rId308"/>
-    <hyperlink ref="F403" r:id="rId309"/>
-    <hyperlink ref="F404" r:id="rId310"/>
-    <hyperlink ref="F405" r:id="rId311"/>
-    <hyperlink ref="F406" r:id="rId312"/>
-    <hyperlink ref="F407" r:id="rId313"/>
-    <hyperlink ref="F408" r:id="rId314"/>
-    <hyperlink ref="F409" r:id="rId315"/>
-    <hyperlink ref="F410" r:id="rId316"/>
-    <hyperlink ref="F412" r:id="rId317"/>
-    <hyperlink ref="F413" r:id="rId318"/>
-    <hyperlink ref="F414" r:id="rId319"/>
-    <hyperlink ref="F415" r:id="rId320"/>
-    <hyperlink ref="F416" r:id="rId321"/>
-    <hyperlink ref="F418" r:id="rId322"/>
-    <hyperlink ref="F419" r:id="rId323"/>
-    <hyperlink ref="F420" r:id="rId324"/>
-    <hyperlink ref="F422" r:id="rId325"/>
-    <hyperlink ref="F423" r:id="rId326"/>
-    <hyperlink ref="F424" r:id="rId327"/>
-    <hyperlink ref="F425" r:id="rId328"/>
-    <hyperlink ref="F426" r:id="rId329"/>
-    <hyperlink ref="F427" r:id="rId330"/>
-    <hyperlink ref="F428" r:id="rId331"/>
-    <hyperlink ref="F429" r:id="rId332"/>
-    <hyperlink ref="F430" r:id="rId333"/>
-    <hyperlink ref="F431" r:id="rId334"/>
-    <hyperlink ref="F432" r:id="rId335"/>
-    <hyperlink ref="F433" r:id="rId336"/>
-    <hyperlink ref="F434" r:id="rId337"/>
-    <hyperlink ref="F435" r:id="rId338"/>
-    <hyperlink ref="F436" r:id="rId339"/>
-    <hyperlink ref="F439" r:id="rId340"/>
-    <hyperlink ref="F440" r:id="rId341"/>
-    <hyperlink ref="F441" r:id="rId342"/>
-    <hyperlink ref="F442" r:id="rId343"/>
-    <hyperlink ref="F445" r:id="rId344"/>
-    <hyperlink ref="F447" r:id="rId345"/>
-    <hyperlink ref="F448" r:id="rId346"/>
-    <hyperlink ref="F449" r:id="rId347"/>
-    <hyperlink ref="F452" r:id="rId348"/>
-    <hyperlink ref="F453" r:id="rId349"/>
-    <hyperlink ref="F456" r:id="rId350"/>
-    <hyperlink ref="F457" r:id="rId351"/>
-    <hyperlink ref="F458" r:id="rId352"/>
-    <hyperlink ref="F459" r:id="rId353"/>
-    <hyperlink ref="F460" r:id="rId354"/>
-    <hyperlink ref="F462" r:id="rId355"/>
-    <hyperlink ref="F464" r:id="rId356"/>
-    <hyperlink ref="F466" r:id="rId357"/>
-    <hyperlink ref="F467" r:id="rId358"/>
-    <hyperlink ref="F469" r:id="rId359"/>
-    <hyperlink ref="F472" r:id="rId360"/>
-    <hyperlink ref="F473" r:id="rId361"/>
-    <hyperlink ref="F474" r:id="rId362"/>
-    <hyperlink ref="F475" r:id="rId363"/>
-    <hyperlink ref="F477" r:id="rId364"/>
-    <hyperlink ref="F478" r:id="rId365"/>
-    <hyperlink ref="F479" r:id="rId366"/>
-    <hyperlink ref="F480" r:id="rId367"/>
-    <hyperlink ref="F481" r:id="rId368"/>
-    <hyperlink ref="F482" r:id="rId369"/>
-    <hyperlink ref="F483" r:id="rId370"/>
-    <hyperlink ref="F485" r:id="rId371"/>
-    <hyperlink ref="F486" r:id="rId372"/>
-    <hyperlink ref="F489" r:id="rId373"/>
-    <hyperlink ref="F490" r:id="rId374"/>
-    <hyperlink ref="F492" r:id="rId375"/>
-    <hyperlink ref="F493" r:id="rId376"/>
-    <hyperlink ref="F495" r:id="rId377"/>
-    <hyperlink ref="F496" r:id="rId378"/>
-    <hyperlink ref="F497" r:id="rId379"/>
-    <hyperlink ref="F498" r:id="rId380"/>
-    <hyperlink ref="F499" r:id="rId381"/>
-    <hyperlink ref="F500" r:id="rId382"/>
-    <hyperlink ref="F501" r:id="rId383"/>
-    <hyperlink ref="F502" r:id="rId384"/>
-    <hyperlink ref="F503" r:id="rId385"/>
-    <hyperlink ref="F504" r:id="rId386"/>
-    <hyperlink ref="F505" r:id="rId387"/>
-    <hyperlink ref="F507" r:id="rId388"/>
-    <hyperlink ref="F508" r:id="rId389"/>
-    <hyperlink ref="F509" r:id="rId390"/>
-    <hyperlink ref="F510" r:id="rId391"/>
-    <hyperlink ref="F512" r:id="rId392"/>
-    <hyperlink ref="F514" r:id="rId393"/>
-    <hyperlink ref="F515" r:id="rId394"/>
-    <hyperlink ref="F517" r:id="rId395"/>
-    <hyperlink ref="F518" r:id="rId396"/>
-    <hyperlink ref="F519" r:id="rId397"/>
-    <hyperlink ref="F520" r:id="rId398"/>
-    <hyperlink ref="F523" r:id="rId399"/>
-    <hyperlink ref="F524" r:id="rId400"/>
-    <hyperlink ref="F526" r:id="rId401"/>
-    <hyperlink ref="F527" r:id="rId402"/>
-    <hyperlink ref="F528" r:id="rId403"/>
-    <hyperlink ref="F529" r:id="rId404"/>
-    <hyperlink ref="F530" r:id="rId405"/>
-    <hyperlink ref="F531" r:id="rId406"/>
-    <hyperlink ref="F532" r:id="rId407"/>
-    <hyperlink ref="F533" r:id="rId408"/>
-    <hyperlink ref="F534" r:id="rId409"/>
-    <hyperlink ref="F537" r:id="rId410"/>
-    <hyperlink ref="F538" r:id="rId411"/>
-    <hyperlink ref="F539" r:id="rId412"/>
-    <hyperlink ref="F540" r:id="rId413"/>
-    <hyperlink ref="F541" r:id="rId414"/>
-    <hyperlink ref="F542" r:id="rId415"/>
-    <hyperlink ref="F543" r:id="rId416"/>
-    <hyperlink ref="F544" r:id="rId417"/>
-    <hyperlink ref="F546" r:id="rId418"/>
-    <hyperlink ref="F547" r:id="rId419"/>
-    <hyperlink ref="F548" r:id="rId420"/>
-    <hyperlink ref="F549" r:id="rId421"/>
-    <hyperlink ref="F550" r:id="rId422"/>
-    <hyperlink ref="F551" r:id="rId423"/>
-    <hyperlink ref="F552" r:id="rId424"/>
-    <hyperlink ref="F553" r:id="rId425"/>
-    <hyperlink ref="F554" r:id="rId426"/>
-    <hyperlink ref="F555" r:id="rId427"/>
-    <hyperlink ref="F556" r:id="rId428"/>
-    <hyperlink ref="F557" r:id="rId429"/>
-    <hyperlink ref="F558" r:id="rId430"/>
-    <hyperlink ref="F559" r:id="rId431"/>
-    <hyperlink ref="F560" r:id="rId432"/>
-    <hyperlink ref="F561" r:id="rId433"/>
-    <hyperlink ref="F562" r:id="rId434"/>
-    <hyperlink ref="F563" r:id="rId435"/>
-    <hyperlink ref="F564" r:id="rId436"/>
-    <hyperlink ref="F565" r:id="rId437"/>
-    <hyperlink ref="F566" r:id="rId438"/>
-    <hyperlink ref="F567" r:id="rId439"/>
-    <hyperlink ref="F568" r:id="rId440"/>
-    <hyperlink ref="F570" r:id="rId441"/>
-    <hyperlink ref="F571" r:id="rId442"/>
-    <hyperlink ref="F572" r:id="rId443"/>
-    <hyperlink ref="F573" r:id="rId444"/>
-    <hyperlink ref="F574" r:id="rId445"/>
-    <hyperlink ref="F575" r:id="rId446"/>
-    <hyperlink ref="F577" r:id="rId447"/>
-    <hyperlink ref="F579" r:id="rId448"/>
-    <hyperlink ref="F580" r:id="rId449"/>
-    <hyperlink ref="F581" r:id="rId450"/>
-    <hyperlink ref="F582" r:id="rId451"/>
-    <hyperlink ref="F585" r:id="rId452"/>
-    <hyperlink ref="F586" r:id="rId453"/>
-    <hyperlink ref="F587" r:id="rId454"/>
-    <hyperlink ref="F589" r:id="rId455"/>
-    <hyperlink ref="F593" r:id="rId456"/>
-    <hyperlink ref="F595" r:id="rId457"/>
-    <hyperlink ref="F597" r:id="rId458"/>
-    <hyperlink ref="F598" r:id="rId459"/>
-    <hyperlink ref="F600" r:id="rId460"/>
-    <hyperlink ref="F601" r:id="rId461"/>
-    <hyperlink ref="F603" r:id="rId462"/>
-    <hyperlink ref="F604" r:id="rId463"/>
-    <hyperlink ref="F605" r:id="rId464"/>
-    <hyperlink ref="F607" r:id="rId465"/>
-    <hyperlink ref="F609" r:id="rId466"/>
-    <hyperlink ref="F611" r:id="rId467"/>
-    <hyperlink ref="F613" r:id="rId468"/>
-    <hyperlink ref="F614" r:id="rId469"/>
-    <hyperlink ref="F615" r:id="rId470"/>
-    <hyperlink ref="F617" r:id="rId471"/>
-    <hyperlink ref="F618" r:id="rId472"/>
-    <hyperlink ref="F619" r:id="rId473"/>
-    <hyperlink ref="F620" r:id="rId474"/>
-    <hyperlink ref="F622" r:id="rId475"/>
-    <hyperlink ref="F623" r:id="rId476"/>
-    <hyperlink ref="F624" r:id="rId477"/>
-    <hyperlink ref="F625" r:id="rId478"/>
-    <hyperlink ref="F627" r:id="rId479"/>
-    <hyperlink ref="F630" r:id="rId480"/>
-    <hyperlink ref="F631" r:id="rId481"/>
-    <hyperlink ref="F632" r:id="rId482"/>
-    <hyperlink ref="F634" r:id="rId483"/>
-    <hyperlink ref="F636" r:id="rId484"/>
-    <hyperlink ref="F638" r:id="rId485"/>
-    <hyperlink ref="F639" r:id="rId486"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F42" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F43" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F55" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F69" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F70" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F71" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F73" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F74" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F75" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F76" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F77" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F78" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F79" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F80" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F82" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F83" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F84" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F85" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F86" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F90" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F93" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F94" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F95" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F96" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F97" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F98" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F99" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F100" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F101" r:id="rId86" location="tayk" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F102" r:id="rId87" location="ween" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F104" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F105" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F106" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F108" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F111" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F113" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F115" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F116" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F117" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F118" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F119" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F120" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F121" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F122" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F124" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F125" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F126" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F127" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F128" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F129" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F131" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F132" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F133" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F135" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F136" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F137" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F138" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F139" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F141" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F142" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F145" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F146" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F148" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F149" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F150" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F152" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F153" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F154" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F155" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F156" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F158" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F159" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F160" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F161" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F162" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F163" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F164" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="F165" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="F166" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="F167" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F168" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="F169" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="F170" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="F171" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F172" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="F173" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F174" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="F175" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="F176" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="F177" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F178" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="F179" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F180" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="F181" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="F182" r:id="rId152" location="flyingpost" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="F183" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="F184" r:id="rId154" location="chapleauojibwe" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="F185" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="F186" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="F188" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="F189" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="F191" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="F192" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="F193" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="F194" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="F195" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="F197" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="F213" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="F214" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="F215" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="F216" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="F217" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="F218" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="F219" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="F220" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="F221" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F223" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="F224" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="F227" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="F231" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="F232" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="F238" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="F241" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="F242" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="F243" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="F244" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="F247" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="F250" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="F252" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="F253" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="F254" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="F255" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="F256" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="F257" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="F258" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="F259" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="F260" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="F261" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="F262" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="F263" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="F267" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="F269" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="F270" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="F271" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="F273" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="F275" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="F276" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="F277" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="F279" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="F280" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="F281" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="F282" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="F283" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="F284" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="F285" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="F286" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="F287" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="F288" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="F289" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="F290" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="F291" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="F292" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="F293" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="F294" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="F295" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="F296" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="F297" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="F298" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="F299" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="F300" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="F301" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="F302" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="F303" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="F304" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="F305" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="F306" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="F307" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="F308" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="F309" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="F310" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="F311" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="F312" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="F313" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="F314" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="F315" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="F316" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="F317" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="F318" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="F319" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="F320" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="F321" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="F322" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="F323" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="F324" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="F325" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="F326" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="F327" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="F328" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="F329" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="F330" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="F331" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="F332" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="F333" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="F334" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="F335" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="F336" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="F337" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="F338" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="F339" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="F340" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="F341" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="F342" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="F343" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="F344" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="F345" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="F346" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="F348" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="F349" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="F350" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="F351" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="F352" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="F354" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="F355" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="F356" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="F357" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="F358" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="F360" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="F361" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="F362" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="F363" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="F366" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="F367" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="F368" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="F369" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="F371" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="F377" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="F379" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="F380" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="F381" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="F382" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="F383" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="F386" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="F387" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="F389" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="F391" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="F393" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="F395" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="F398" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="F399" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="F401" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="F402" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="F403" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="F404" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="F405" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="F406" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="F407" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="F408" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="F409" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="F410" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="F412" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="F413" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="F414" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="F415" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="F416" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="F418" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="F419" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="F420" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="F422" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="F423" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="F424" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="F425" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="F426" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="F427" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="F428" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="F429" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="F430" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="F431" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="F432" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="F433" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="F434" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="F435" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="F436" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="F439" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="F440" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="F441" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="F442" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="F445" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="F447" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="F448" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="F449" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="F452" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="F453" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="F456" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="F457" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="F458" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="F459" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="F460" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="F462" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="F464" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="F466" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="F467" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="F469" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="F472" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="F473" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="F474" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="F475" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="F477" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="F478" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="F479" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="F480" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="F481" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="F482" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="F483" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="F485" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="F486" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="F489" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="F490" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="F492" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="F493" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="F495" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="F496" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="F497" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="F498" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="F499" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="F500" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="F501" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="F502" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="F503" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="F504" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="F505" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="F507" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="F508" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="F509" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="F510" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="F512" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="F514" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="F515" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="F517" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="F518" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="F519" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="F520" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="F523" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="F524" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="F526" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="F527" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="F528" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="F529" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="F530" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="F531" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="F532" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="F533" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="F534" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="F537" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="F538" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="F539" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="F540" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="F541" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="F542" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="F543" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="F544" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="F546" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="F547" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="F548" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="F549" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="F550" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="F551" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="F552" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="F553" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="F554" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="F555" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="F556" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="F557" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="F558" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="F559" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="F560" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="F561" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="F562" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="F563" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="F564" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="F565" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="F566" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="F567" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="F568" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="F570" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="F571" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="F572" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="F573" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="F574" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="F575" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="F577" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="F579" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="F580" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="F581" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="F582" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="F585" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="F586" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="F587" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="F589" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="F593" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="F595" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="F597" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="F598" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="F600" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="F601" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="F603" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="F604" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="F605" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="F607" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="F609" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="F611" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="F613" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="F614" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="F615" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="F617" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="F618" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="F619" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="F620" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="F622" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="F623" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="F624" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="F625" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="F627" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="F630" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="F631" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="F632" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="F634" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="F636" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="F638" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="F639" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
